--- a/dataset/excel data/329-209.xlsx
+++ b/dataset/excel data/329-209.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\실험데이터\★★버블맵프로그램및도면이미지\도면이미지\★논문유형 10\18-279-1\1. orignal image\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DADL-PHJ\Desktop\버블맵프로그램및도면이미지\도면이미지\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{551180A2-3B90-4FA5-962F-34892E8842C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A758BE-E070-4E02-903B-2E06CF3B289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34680" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="375" windowWidth="26340" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="329-209" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="91">
   <si>
     <t>인접공간ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,7 +271,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.1546</t>
+    <t>0.153</t>
   </si>
   <si>
     <t>1701</t>
@@ -286,7 +286,7 @@
     <t>BED</t>
   </si>
   <si>
-    <t>0.1851</t>
+    <t>0.1757</t>
   </si>
   <si>
     <t>DRE</t>
@@ -295,43 +295,82 @@
     <t>BAT</t>
   </si>
   <si>
-    <t>0.0385</t>
+    <t>0.9095</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>0.0392</t>
+  </si>
+  <si>
+    <t>0.0129</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>0.0249</t>
   </si>
   <si>
     <t>UTI</t>
   </si>
   <si>
-    <t>KIT</t>
+    <t>0.1043</t>
   </si>
   <si>
     <t>LAU</t>
   </si>
   <si>
-    <t>0.0221</t>
-  </si>
-  <si>
-    <t>0.9359</t>
-  </si>
-  <si>
-    <t>0.0132</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>0.0402</t>
-  </si>
-  <si>
-    <t>0.009</t>
-  </si>
-  <si>
-    <t>0.0146</t>
-  </si>
-  <si>
-    <t>0.1223</t>
-  </si>
-  <si>
-    <t>0.061</t>
+    <t>0.0242</t>
+  </si>
+  <si>
+    <t>0.0077</t>
+  </si>
+  <si>
+    <t>0.0193</t>
+  </si>
+  <si>
+    <t>0.0518</t>
+  </si>
+  <si>
+    <t>329-209-2</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>CLO</t>
+  </si>
+  <si>
+    <t>0.6701</t>
+  </si>
+  <si>
+    <t>0.0393</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.2148</t>
+  </si>
+  <si>
+    <t>0.3981</t>
+  </si>
+  <si>
+    <t>0.0263</t>
+  </si>
+  <si>
+    <t>0.0333</t>
+  </si>
+  <si>
+    <t>0.0436</t>
+  </si>
+  <si>
+    <t>0.3621</t>
+  </si>
+  <si>
+    <t>0.0171</t>
   </si>
 </sst>
 </file>
@@ -480,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,13 +529,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -511,13 +550,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -526,37 +565,40 @@
     <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
@@ -886,30 +928,30 @@
       <c r="C1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15" t="s">
         <v>44</v>
       </c>
@@ -938,14 +980,14 @@
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="20" t="s">
         <v>22</v>
       </c>
@@ -1016,10 +1058,10 @@
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="12" t="s">
         <v>9</v>
       </c>
@@ -1198,13 +1240,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.44419999999999998</v>
+        <v>0.43080000000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>0.34810000000000002</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.71540000000000004</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>54</v>
@@ -1290,13 +1332,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>0.44419999999999998</v>
+        <v>0.43080000000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>0.34810000000000002</v>
+        <v>0.35520000000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.71540000000000004</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>54</v>
@@ -1350,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD6" s="1">
         <v>1</v>
@@ -1382,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.52790000000000004</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.84389999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>54</v>
@@ -1474,13 +1516,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>0.52790000000000004</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.84389999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>54</v>
@@ -1534,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
         <v>1</v>
@@ -1566,13 +1608,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0.52790000000000004</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.84389999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>54</v>
@@ -1649,22 +1691,22 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>0.193</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>54</v>
@@ -1688,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1706,16 +1748,16 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
@@ -1741,22 +1783,22 @@
         <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.193</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>54</v>
@@ -1780,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1798,28 +1840,28 @@
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -1833,22 +1875,22 @@
         <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0.193</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>54</v>
@@ -1872,46 +1914,46 @@
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="1">
         <v>3</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>4</v>
-      </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -1925,22 +1967,22 @@
         <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0.193</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.90949999999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.59789999999999999</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>54</v>
@@ -1964,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
         <v>0</v>
@@ -1982,28 +2024,28 @@
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
@@ -2017,22 +2059,22 @@
         <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0.193</v>
+        <v>0.21190000000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.62370000000000003</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>54</v>
@@ -2047,7 +2089,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>58</v>
@@ -2059,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -2080,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
@@ -2095,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -2109,22 +2151,22 @@
         <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.193</v>
+        <v>0.21190000000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>0.19950000000000001</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.54249999999999998</v>
+        <v>0.62370000000000003</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>54</v>
@@ -2139,7 +2181,7 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>58</v>
@@ -2151,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2172,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="1">
         <v>1</v>
@@ -2201,22 +2243,22 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0.1512</v>
+        <v>0.1454</v>
       </c>
       <c r="I16" s="1">
-        <v>0.14599999999999999</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="J16" s="1">
-        <v>0.58040000000000003</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>54</v>
@@ -2231,7 +2273,7 @@
         <v>56</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>58</v>
@@ -2240,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2252,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>0</v>
@@ -2264,22 +2306,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.3">
@@ -2293,22 +2335,22 @@
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0.95579999999999998</v>
+        <v>0.1454</v>
       </c>
       <c r="I17" s="1">
-        <v>0.97909999999999997</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>0.54730000000000001</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>54</v>
@@ -2323,7 +2365,7 @@
         <v>56</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>58</v>
@@ -2332,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -2350,28 +2392,28 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AB17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
@@ -2385,22 +2427,22 @@
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0.95579999999999998</v>
+        <v>0.1454</v>
       </c>
       <c r="I18" s="1">
-        <v>0.97909999999999997</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>0.54730000000000001</v>
+        <v>0.89249999999999996</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>54</v>
@@ -2415,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>58</v>
@@ -2424,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2442,28 +2484,28 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB18" s="1">
         <v>2</v>
       </c>
-      <c r="AA18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>8</v>
-      </c>
       <c r="AC18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
@@ -2477,22 +2519,22 @@
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>0.95579999999999998</v>
+        <v>0.1384</v>
       </c>
       <c r="I19" s="1">
-        <v>0.97909999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="J19" s="1">
-        <v>0.54730000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>54</v>
@@ -2516,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2534,16 +2576,16 @@
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
         <v>1</v>
@@ -2569,22 +2611,22 @@
         <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>0.95579999999999998</v>
+        <v>0.1384</v>
       </c>
       <c r="I20" s="1">
-        <v>0.97909999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="J20" s="1">
-        <v>0.54730000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>54</v>
@@ -2608,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" s="1">
         <v>0</v>
@@ -2626,28 +2668,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB20" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC20" s="1">
         <v>1</v>
       </c>
       <c r="AD20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
@@ -2661,22 +2703,22 @@
         <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>0.95579999999999998</v>
+        <v>0.1384</v>
       </c>
       <c r="I21" s="1">
-        <v>0.97909999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="J21" s="1">
-        <v>0.54730000000000001</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>54</v>
@@ -2700,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2718,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>53</v>
@@ -2762,13 +2804,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="1">
-        <v>0.14879999999999999</v>
+        <v>0.1384</v>
       </c>
       <c r="I22" s="1">
-        <v>8.8700000000000001E-2</v>
+        <v>0.18</v>
       </c>
       <c r="J22" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>54</v>
@@ -2783,7 +2825,7 @@
         <v>56</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>58</v>
@@ -2795,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" s="1">
         <v>0</v>
@@ -2816,22 +2858,22 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="1">
         <v>1</v>
       </c>
       <c r="AD22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
@@ -2854,13 +2896,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="1">
-        <v>0.14879999999999999</v>
+        <v>0.1384</v>
       </c>
       <c r="I23" s="1">
-        <v>8.8700000000000001E-2</v>
+        <v>0.18</v>
       </c>
       <c r="J23" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>54</v>
@@ -2875,7 +2917,7 @@
         <v>56</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>58</v>
@@ -2887,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" s="1">
         <v>0</v>
@@ -2908,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AB23" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AC23" s="1">
         <v>1</v>
@@ -2937,22 +2979,22 @@
         <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>0.14879999999999999</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>8.8700000000000001E-2</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>54</v>
@@ -2967,7 +3009,7 @@
         <v>56</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>58</v>
@@ -2988,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="1">
         <v>0</v>
@@ -3000,22 +3042,22 @@
         <v>0</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AB24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="1">
         <v>1</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
@@ -3029,22 +3071,22 @@
         <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0.214</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>0.18770000000000001</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.63890000000000002</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>54</v>
@@ -3059,7 +3101,7 @@
         <v>56</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>58</v>
@@ -3071,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>0</v>
@@ -3080,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
@@ -3092,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="AB25" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AC25" s="1">
         <v>1</v>
@@ -3121,22 +3163,22 @@
         <v>52</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>0.214</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>0.18770000000000001</v>
+        <v>0.32379999999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.63890000000000002</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>54</v>
@@ -3151,7 +3193,7 @@
         <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>58</v>
@@ -3163,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3172,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
@@ -3190,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="1">
         <v>1</v>
@@ -3213,22 +3255,22 @@
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>9.5299999999999996E-2</v>
+        <v>0.1384</v>
       </c>
       <c r="I27" s="1">
-        <v>9.3899999999999997E-2</v>
+        <v>0.17519999999999999</v>
       </c>
       <c r="J27" s="1">
-        <v>0.56940000000000002</v>
+        <v>0.42930000000000001</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>54</v>
@@ -3252,10 +3294,10 @@
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
         <v>0</v>
@@ -3305,22 +3347,22 @@
         <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>0.13020000000000001</v>
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="I28" s="1">
-        <v>0.11210000000000001</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="J28" s="1">
-        <v>0.6512</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>54</v>
@@ -3344,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>0</v>
@@ -3367,23 +3409,23 @@
       <c r="Y28" s="1">
         <v>0</v>
       </c>
-      <c r="AA28" s="1">
-        <v>0</v>
+      <c r="AA28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.3">
@@ -3397,22 +3439,22 @@
         <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0.3488</v>
+        <v>0.14360000000000001</v>
       </c>
       <c r="I29" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.1343</v>
       </c>
       <c r="J29" s="1">
-        <v>0.55759999999999998</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>54</v>
@@ -3436,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
@@ -3460,22 +3502,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC29" s="1">
         <v>1</v>
       </c>
       <c r="AD29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
@@ -3489,22 +3531,22 @@
         <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0.3488</v>
+        <v>0.29249999999999998</v>
       </c>
       <c r="I30" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.17710000000000001</v>
       </c>
       <c r="J30" s="1">
-        <v>0.55759999999999998</v>
+        <v>0.89780000000000004</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>54</v>
@@ -3519,7 +3561,7 @@
         <v>56</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>58</v>
@@ -3540,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
@@ -3552,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AB30" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC30" s="1">
         <v>1</v>
@@ -3575,28 +3617,28 @@
         <v>51</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0.3488</v>
+        <v>0.45810000000000001</v>
       </c>
       <c r="I31" s="1">
-        <v>0.35070000000000001</v>
+        <v>0.32090000000000002</v>
       </c>
       <c r="J31" s="1">
-        <v>0.55759999999999998</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>54</v>
@@ -3611,7 +3653,7 @@
         <v>56</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>58</v>
@@ -3620,37 +3662,37 @@
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AB31" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD31" s="1">
         <v>1</v>
@@ -3667,31 +3709,31 @@
         <v>51</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>0.314</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="I32" s="1">
-        <v>0.1943</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="J32" s="1">
-        <v>0.90600000000000003</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>55</v>
@@ -3703,7 +3745,7 @@
         <v>56</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>58</v>
@@ -3712,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
         <v>0</v>
@@ -3736,21 +3778,757 @@
         <v>0</v>
       </c>
       <c r="AA32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.1966</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="AC32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="1">
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="1">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.1487</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="1">
+        <v>8</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.1595</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.9143</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.1595</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.9143</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.1595</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.9143</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.2974</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5.74E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="1">
         <v>0.25</v>
       </c>
     </row>
